--- a/biology/Zoologie/Cachalot_pygmée/Cachalot_pygmée.xlsx
+++ b/biology/Zoologie/Cachalot_pygmée/Cachalot_pygmée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cachalot_pygm%C3%A9e</t>
+          <t>Cachalot_pygmée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kogia breviceps
-Le Cachalot pygmée[1] ou Petit Cachalot (Kogia breviceps) est un cétacé à dents.
+Le Cachalot pygmée ou Petit Cachalot (Kogia breviceps) est un cétacé à dents.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cachalot_pygm%C3%A9e</t>
+          <t>Cachalot_pygmée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mammifère est trapu. La taille d'un adulte, mâle ou femelle peut atteindre jusqu'à 3,40 m pour une masse maximum de 400 kg. Il possède de fausses ouïes en retrait des yeux, des petites nageoires et une mâchoire caractéristique, On peut donc potentiellement le confondre avec le requin[2]. Les fausses ouïes sont dues à une pigmentation plus foncée de la peau à cet endroit. Sa nageoire caudale ne sort jamais de l'eau. Il semble se laisser couler et disparaître. Très discret et difficile à approcher, on l'observe cependant à la surface, voire sautant hors de l'eau. Son observation étant très difficile, il est impossible de quantifier exactement les populations.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mammifère est trapu. La taille d'un adulte, mâle ou femelle peut atteindre jusqu'à 3,40 m pour une masse maximum de 400 kg. Il possède de fausses ouïes en retrait des yeux, des petites nageoires et une mâchoire caractéristique, On peut donc potentiellement le confondre avec le requin. Les fausses ouïes sont dues à une pigmentation plus foncée de la peau à cet endroit. Sa nageoire caudale ne sort jamais de l'eau. Il semble se laisser couler et disparaître. Très discret et difficile à approcher, on l'observe cependant à la surface, voire sautant hors de l'eau. Son observation étant très difficile, il est impossible de quantifier exactement les populations.
 En vieillissant le corps devient plus massif. Son melon contient aussi du spermaceti, une huile très fine recherchée pour ses propriétés lubrifiantes. Seule la mâchoire inférieure comporte des dents : 20 à 32, très pointues et dirigées vers l'arrière. Le cachalot pygmée comme le grand cachalot possède une peau plissée qui est généralement bleu-gris sur le dessus et s'atténuant au blanc sur le flanc. La forme des nageoires pectorales rappelle une feuille de laurier tandis que la nageoire dorsale, plus petite est filiforme. La nageoire caudale en forme d'accolade est plus souple que celle des dauphins océaniques.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cachalot_pygm%C3%A9e</t>
+          <t>Cachalot_pygmée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cétacé à dents vient dans les eaux chaudes et tempérées des deux hémisphères. Il vit au large, en eau profonde, mais s'approche parfois des côtes, surtout si la nourriture y est abondante. Ce cachalot mange préférentiellement des seiches, calmars, pieuvres, crustacés et poissons en pleine eau ou au fond, mais dans la limite de 10 m de profondeur. Pour pouvoir se nourrir il doit surtout faire preuve de discrétion pour traquer ses proies.
-Par contre, le cachalot pygmée n'est pas un animal grégaire. Des groupes de cinq à six individus maximum ont été vus, mais à cause de la difficulté de leur observation, nous ignorons à peu près tout de leur mode de vie en société. La maturité sexuelle apparaît vers quatre-cinq ans. La période de gestation est de neuf à  onze mois ; le petit mesure à la naissance 1m pour une masse d'environ 45 kg ; l'allaitement dure un an ; et une procréation annuelle est possible[3].
-Il n'a pas été chassé par l'homme (sauf rare exception récente aux Philippines, à la pêche à l'explosif)[4].
+Par contre, le cachalot pygmée n'est pas un animal grégaire. Des groupes de cinq à six individus maximum ont été vus, mais à cause de la difficulté de leur observation, nous ignorons à peu près tout de leur mode de vie en société. La maturité sexuelle apparaît vers quatre-cinq ans. La période de gestation est de neuf à  onze mois ; le petit mesure à la naissance 1m pour une masse d'environ 45 kg ; l'allaitement dure un an ; et une procréation annuelle est possible.
+Il n'a pas été chassé par l'homme (sauf rare exception récente aux Philippines, à la pêche à l'explosif).
 </t>
         </is>
       </c>
